--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1079.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1079.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9035433141917738</v>
+        <v>1.19089138507843</v>
       </c>
       <c r="B1">
-        <v>1.98805879626541</v>
+        <v>2.474459648132324</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.115537265925231</v>
+        <v>2.277533531188965</v>
       </c>
       <c r="E1">
-        <v>1.359278950335649</v>
+        <v>1.179970979690552</v>
       </c>
     </row>
   </sheetData>
